--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R205_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -709,10 +721,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -756,28 +768,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -802,28 +814,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1433,10 +1445,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1480,28 +1492,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1526,28 +1538,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2157,10 +2169,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2204,28 +2216,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2250,28 +2262,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2678,10 +2690,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2725,28 +2737,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2771,28 +2783,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3199,10 +3211,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3246,28 +3258,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3292,28 +3304,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3662,10 +3674,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3709,28 +3721,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3755,28 +3767,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4038,10 +4050,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4085,28 +4097,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4131,28 +4143,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4211,10 +4223,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
+      <c r="J141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
